--- a/corredores.xlsx
+++ b/corredores.xlsx
@@ -17,273 +17,255 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="83">
+  <si>
+    <t>PIZZOLITO, Javier (ARG)</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>QUINTANILLA, Pablo (CHL)</t>
+  </si>
+  <si>
+    <t>CHL</t>
+  </si>
   <si>
     <t>RODRIGUEZ, Pablo E. (ARG)</t>
   </si>
   <si>
-    <t>ARG</t>
-  </si>
-  <si>
-    <t>PIZZOLITO, Javier (ARG)</t>
+    <t>CABRERA, Patricio (CHL)</t>
+  </si>
+  <si>
+    <t>FERNANDEZ, German (URY)</t>
+  </si>
+  <si>
+    <t>URY</t>
+  </si>
+  <si>
+    <t>CASTEU, David (FRA)</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>LOPEZ, Francisco (CHL)</t>
+  </si>
+  <si>
+    <t>LACUNZA, Jorge (ARG)</t>
   </si>
   <si>
     <t>ONTIVEROS, Alberto (ARG)</t>
   </si>
   <si>
-    <t>GOUET, Daniel (CHL)</t>
-  </si>
-  <si>
-    <t>CHL</t>
-  </si>
-  <si>
-    <t>CASTEU, David (FRA)</t>
-  </si>
-  <si>
-    <t>FRA</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ, Claudio (CHL)</t>
-  </si>
-  <si>
-    <t>NASER COLOMBO, C. (CHL)</t>
-  </si>
-  <si>
-    <t>QUINTANILLA, Pablo (CHL)</t>
-  </si>
-  <si>
-    <t>CABRERA, Patricio (CHL)</t>
-  </si>
-  <si>
-    <t>HEINRICH, Eduardo (PER)</t>
+    <t>FUENTES, Fabricio (BOL)</t>
+  </si>
+  <si>
+    <t>BOL</t>
+  </si>
+  <si>
+    <t>AYESA, Mauro (ARG)</t>
+  </si>
+  <si>
+    <t>PETRONE, Sergio (ARG)</t>
+  </si>
+  <si>
+    <t>TORO, Juan (COL)</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>FERNANDEZ, Sebastian (URY)</t>
+  </si>
+  <si>
+    <t>MARTINELLI, Guido (ARG)</t>
+  </si>
+  <si>
+    <t>SANZ, Hector (ARG)</t>
+  </si>
+  <si>
+    <t>CUYPERS, Charles (FRA)</t>
+  </si>
+  <si>
+    <t>SANSALONI, Adrian (ARG)</t>
+  </si>
+  <si>
+    <t>AMESPIL, Leon (ARG)</t>
+  </si>
+  <si>
+    <t>GUIRAL, Demian (ARG)</t>
+  </si>
+  <si>
+    <t>PEÑALVA, Diego (ARG)</t>
+  </si>
+  <si>
+    <t>CANDIA, Jose (PRY)</t>
+  </si>
+  <si>
+    <t>PRY</t>
+  </si>
+  <si>
+    <t>NOGALES, Danny (BOL)</t>
+  </si>
+  <si>
+    <t>ZARCA, Carlos (PRY)</t>
+  </si>
+  <si>
+    <t>DUPLESSIS, Diego (ARG)</t>
+  </si>
+  <si>
+    <t>ECHEVESTE, Kevin E. (RA )</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>ROMERO, Cristian (RA )</t>
+  </si>
+  <si>
+    <t>RIVEROS, Javier (ARG)</t>
+  </si>
+  <si>
+    <t>LAFUENTE, Sergio (URY)</t>
+  </si>
+  <si>
+    <t>SANABRIA, Nelson (PRY)</t>
+  </si>
+  <si>
+    <t>MAZZUCO, Daniel (ARG)</t>
+  </si>
+  <si>
+    <t>VERZA, Carlos A. (ARG)</t>
+  </si>
+  <si>
+    <t>LICIO, Diego (URY)</t>
+  </si>
+  <si>
+    <t>ALMEIDA, Mauro (URY)</t>
+  </si>
+  <si>
+    <t>ESTANGUET, Julio (ARG)</t>
+  </si>
+  <si>
+    <t>HERNANDEZ, Alexis (PER)</t>
   </si>
   <si>
     <t>PER</t>
   </si>
   <si>
-    <t>DEMELCHORI, Diego (ARG)</t>
-  </si>
-  <si>
-    <t>TORO, Juan (COL)</t>
-  </si>
-  <si>
-    <t>COL</t>
-  </si>
-  <si>
-    <t>FERNANDEZ, German (URY)</t>
-  </si>
-  <si>
-    <t>URY</t>
-  </si>
-  <si>
-    <t>DOMENACH, Thierry (FRA)</t>
-  </si>
-  <si>
-    <t>MONIER, Charles (FRA)</t>
-  </si>
-  <si>
-    <t>FERNANDEZ, Domingo (ESP)</t>
-  </si>
-  <si>
-    <t>ESP</t>
-  </si>
-  <si>
-    <t>FERNANDEZ, Carlos (ESP)</t>
-  </si>
-  <si>
-    <t>FUENTES, Fabricio (BOL)</t>
-  </si>
-  <si>
-    <t>BOL</t>
-  </si>
-  <si>
-    <t>RIOS, Felipe (PER)</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ, Gabriel (ARG)</t>
-  </si>
-  <si>
-    <t>LACUNZA, Jorge (ARG)</t>
-  </si>
-  <si>
-    <t>PEREIRA, Juan Carlos (ARG)</t>
-  </si>
-  <si>
-    <t>DEL ZOTTO, Flavio (ARG)</t>
-  </si>
-  <si>
-    <t>SANSALONI, Adrian (ARG)</t>
-  </si>
-  <si>
-    <t>PETRONE, Sergio (ARG)</t>
-  </si>
-  <si>
-    <t>GARCIA, Pablo (ARG)</t>
-  </si>
-  <si>
-    <t>LIAN, Fernando (ARG)</t>
-  </si>
-  <si>
-    <t>BOTTAZZINI, Gabriel (ARG)</t>
-  </si>
-  <si>
-    <t>LOPEZ JOVE, Esteban (ARG)</t>
-  </si>
-  <si>
-    <t>AYESA, Mauro (ARG)</t>
-  </si>
-  <si>
-    <t>MARTINELLI, Guido (ARG)</t>
-  </si>
-  <si>
-    <t>SALAZAR, Gaston (ARG)</t>
-  </si>
-  <si>
-    <t>BULLRICH, Hernan (ARG)</t>
-  </si>
-  <si>
-    <t>TERENZIANI, Pablo (ARG)</t>
-  </si>
-  <si>
-    <t>PAULS, Santiago (ARG)</t>
-  </si>
-  <si>
-    <t>SUAREZ ZAPATA, Juan (ARG)</t>
-  </si>
-  <si>
-    <t>SILVA, Eugenio (ARG)</t>
-  </si>
-  <si>
-    <t>SANZ, Hector (ARG)</t>
-  </si>
-  <si>
-    <t>MEDINA, Alexis (ARG)</t>
-  </si>
-  <si>
-    <t>HALPERN, Sebastian (ARG)</t>
-  </si>
-  <si>
-    <t>GONZALEZ, Jeremias (ARG)</t>
-  </si>
-  <si>
-    <t>BONETTO, Lucas (ARG)</t>
-  </si>
-  <si>
-    <t>MAZZUCO, Daniel (ARG)</t>
-  </si>
-  <si>
-    <t>ESTANGUET, Julio (ARG)</t>
+    <t>INOCENTI, Lucas (ARG)</t>
+  </si>
+  <si>
+    <t>ZAFFI, Lucas (ARG)</t>
+  </si>
+  <si>
+    <t>MARTINEZ, Leonardo (BOL)</t>
   </si>
   <si>
     <t>GIORDANA, Giuliano (ARG)</t>
   </si>
   <si>
-    <t>LAFUENTE, Sergio (URY)</t>
-  </si>
-  <si>
-    <t>HERNANDEZ, Alexis (PER)</t>
-  </si>
-  <si>
-    <t>SANABRIA, Nelson (PRY)</t>
-  </si>
-  <si>
-    <t>PRY</t>
-  </si>
-  <si>
-    <t>VERZA, Carlos A. (ARG)</t>
-  </si>
-  <si>
-    <t>GONZALEZ, Gaston (ARG)</t>
-  </si>
-  <si>
-    <t>MARTINEZ, Leonardo (BOL)</t>
-  </si>
-  <si>
-    <t>MITA, Sergio (BOL)</t>
-  </si>
-  <si>
-    <t>LICIO, Roberto (URY)</t>
-  </si>
-  <si>
-    <t>RIOS, Pablo (ARG)</t>
-  </si>
-  <si>
-    <t>PERALTA, Santiago (ARG)</t>
-  </si>
-  <si>
-    <t>VEGA, Edgardo (ARG)</t>
-  </si>
-  <si>
-    <t>PANDO, Gaston (ARG)</t>
-  </si>
-  <si>
-    <t>FRANCISCO, Jorge (ARG)</t>
-  </si>
-  <si>
-    <t>INOCENTI, Lucas (ARG)</t>
+    <t>BENNAZAR, Mariano (ARG)</t>
   </si>
   <si>
     <t>BAYER, Claudio (ARG)</t>
   </si>
   <si>
-    <t>BENNAZAR, Mariano (ARG)</t>
-  </si>
-  <si>
-    <t>ZAFFI, Lucas (ARG)</t>
-  </si>
-  <si>
-    <t>YACOPINI, Alejandro (ARG)   MERLO, Daniel (RA )</t>
-  </si>
-  <si>
-    <t>GANDARA, Omar (ARG)   FENOGLIO Alejandro (ARG)</t>
-  </si>
-  <si>
-    <t>MARANZANA, Pablo (ARG)   ARRIETA, Eugenio (ARG)</t>
-  </si>
-  <si>
-    <t>BRADACH, Fernando (ARG)   BRADACH, Juan (ARG)</t>
-  </si>
-  <si>
-    <t>MAINE, Martin (ARG)   CARCASSON, Carolina (ARG)</t>
+    <t>DI PALMA, Dino (ARG)</t>
+  </si>
+  <si>
+    <t>HERNANDEZ, Daniel (PER)</t>
+  </si>
+  <si>
+    <t>NOSIGLIA, Walter (BOL)</t>
+  </si>
+  <si>
+    <t>PALMA, Sebastian (CHL)</t>
+  </si>
+  <si>
+    <t>GUTIERREZ, Cristian (ARG)</t>
+  </si>
+  <si>
+    <t>DOERKSEN, Alveroni (PRY)</t>
+  </si>
+  <si>
+    <t>BERTOLA, María Celes (ARG)</t>
+  </si>
+  <si>
+    <t>RAMIREZ, Beto (PRY)</t>
+  </si>
+  <si>
+    <t>SILVA, Juan Manuel (ARG)   LOPEZ, Eduardo (ARG)</t>
   </si>
   <si>
     <t>MALDONADO, Martin (ARG)   SCHOLZ, Sebastian (ARG)</t>
   </si>
   <si>
-    <t>SILVA, Juan Manuel (ARG)   GARCIA, Ruben (RA )</t>
+    <t>BULACIA, Marco (BOL)   SALAZAR, Abel (BOL)</t>
+  </si>
+  <si>
+    <t>MORENO, Ivan (COL)   ORJUELA, Alejandro (COL)</t>
   </si>
   <si>
     <t>AMOR, Eduardo (ARG)   DI PALMA, Jose Luis (ARG)</t>
   </si>
   <si>
-    <t>CAMPILLAY, Omar (CHL)   OCAMPO, Claudio (ARG)</t>
-  </si>
-  <si>
-    <t>ROSSELOT, Luis (CHL)   LEON QUINTANILLA, A. (CHL)</t>
-  </si>
-  <si>
-    <t>GUAYASAMIN, Sebastia (ECU)   LIPEZ, Mauro (RA )</t>
-  </si>
-  <si>
-    <t>ECU</t>
-  </si>
-  <si>
-    <t>ANDREOLI, Adriano (ARG)   DI IURE, Roberto (ARG)</t>
-  </si>
-  <si>
-    <t>MORENO, Rodrigo (CHL)   ARAYA, Jorge (CHL)</t>
-  </si>
-  <si>
-    <t>BENEDETTI, Federico (ARG)   POSE ROMERO, Oscar (ARG)</t>
-  </si>
-  <si>
-    <t>DEREGIBUS, Jorge (ARG)   MUZANTE, Carlos (ARG)</t>
-  </si>
-  <si>
-    <t>RIVERO, Norberto (ARG)   CASCALES, Hector (ARG)</t>
-  </si>
-  <si>
-    <t>SISTERNA, Lino (ARG)   ECHEGARAY, Federico (ARG)</t>
+    <t>EGUIGUREN, Luis (RCH)   HASBUN, Antonio (CHL)</t>
+  </si>
+  <si>
+    <t>REMPEL, Viktor (PRY)   REMPEL, Vernon (PRY)</t>
+  </si>
+  <si>
+    <t>RECALDE, Roberto (PRY)   ARRIETA, Eugenio (ARG)</t>
+  </si>
+  <si>
+    <t>NAIVIRT, Roberto (ARG)   SCHILING, Alejandro (ARG)</t>
+  </si>
+  <si>
+    <t>ROBERTI, Hernan (ARG)   ACOSTA, Fernando (ARG)</t>
+  </si>
+  <si>
+    <t>IMPARADO, Jorge (ARG)   TIZZA, Javier (ARG)</t>
+  </si>
+  <si>
+    <t>MALDONADO, Gustavo (PRY)   WHITE, Mike (PRY)</t>
+  </si>
+  <si>
+    <t>MONACO, Oscar (ARG)   SEPULVEDA, Juan P. (CHL)</t>
+  </si>
+  <si>
+    <t>IRALA, Ruben (PRY)   FRATTA, Enrique (PRY)</t>
+  </si>
+  <si>
+    <t>ROLON, Ronald (PRY)   OLMEDO, Gumercindo (PRY)</t>
+  </si>
+  <si>
+    <t>FRETES, Marcelo (PRY)   FRETES, Guillermo (PRY)</t>
+  </si>
+  <si>
+    <t>MENDEZ, Ceferino (PRY)   BAEZ, Felix (PRY)</t>
+  </si>
+  <si>
+    <t>SALOM, Carlos (ARG)   FISCHER, Daniel (ARG)</t>
+  </si>
+  <si>
+    <t>CHICHARRO, Alvaro (RCH)   CHICHARRO, Alvaro (RCH)</t>
+  </si>
+  <si>
+    <t>RCH</t>
+  </si>
+  <si>
+    <t>MEDINA, Rodrigo (CHL)   SALAZAR, Juan (CHL)</t>
+  </si>
+  <si>
+    <t>FRANCO, Luis (PRY)   FERNANDEZ, Humberto (ARG)</t>
+  </si>
+  <si>
+    <t>ARRELLAGA, Martin (PRY)   GONZALEZ, Daniel (PRY)</t>
+  </si>
+  <si>
+    <t>GARCETE, Sergio (PRY)   SANCHEZ, Juan (PRY)</t>
   </si>
 </sst>
 </file>
@@ -292,7 +274,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="HH:MM"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -387,19 +369,19 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.5748987854251"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.2793522267207"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.5748987854251"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5344129554656"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.55060728744939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.2267206477733"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.20647773279352"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.5344129554656"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -419,7 +401,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.354166666666667</v>
+        <v>0.291666666666667</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -433,10 +415,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.355555555555556</v>
+        <v>0.293055555555556</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -447,13 +429,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.356944444444444</v>
+        <v>0.294444444444444</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -464,13 +446,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.358333333333333</v>
+        <v>0.295833333333333</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -487,7 +469,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0.359722222222222</v>
+        <v>0.297222222222222</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -495,16 +477,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.361111111111111</v>
+        <v>0.298611111111111</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -512,16 +494,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.3625</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -529,16 +511,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.363888888888889</v>
+        <v>0.301388888888889</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -546,16 +528,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0.365277777777778</v>
+        <v>0.302777777777778</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -563,16 +545,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>0.366666666666667</v>
+        <v>0.304166666666667</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -580,16 +562,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>0.366666666666667</v>
+        <v>0.304166666666667</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -597,16 +579,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>0.367361111111111</v>
+        <v>0.304861111111111</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -614,7 +596,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>17</v>
@@ -623,7 +605,7 @@
         <v>18</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>0.367361111111111</v>
+        <v>0.304861111111111</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -640,7 +622,7 @@
         <v>7</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>0.368055555555556</v>
+        <v>0.305555555555556</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -654,10 +636,10 @@
         <v>20</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>0.368055555555556</v>
+        <v>0.305555555555556</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -671,10 +653,10 @@
         <v>21</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>0.36875</v>
+        <v>0.30625</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -685,13 +667,13 @@
         <v>20</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>0.36875</v>
+        <v>0.30625</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -699,16 +681,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>0.369444444444444</v>
+        <v>0.306944444444444</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -716,16 +698,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>0.369444444444444</v>
+        <v>0.306944444444444</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -733,16 +715,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>1</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>0.370138888888889</v>
+        <v>0.307638888888889</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -750,16 +732,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>1</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>0.370138888888889</v>
+        <v>0.307638888888889</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -770,13 +752,13 @@
         <v>26</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>0.370833333333333</v>
+        <v>0.308333333333333</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -787,13 +769,13 @@
         <v>27</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>0.370833333333333</v>
+        <v>0.308333333333333</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -801,16 +783,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>1</v>
-      </c>
       <c r="E25" s="1" t="n">
-        <v>0.371527777777778</v>
+        <v>0.309027777777778</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -818,16 +800,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>1</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>0.371527777777778</v>
+        <v>0.309027777777778</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -838,13 +820,13 @@
         <v>31</v>
       </c>
       <c r="C27" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>1</v>
-      </c>
       <c r="E27" s="1" t="n">
-        <v>0.372222222222222</v>
+        <v>0.309722222222222</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -858,10 +840,10 @@
         <v>34</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>0.372222222222222</v>
+        <v>0.309722222222222</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -878,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>0.372916666666667</v>
+        <v>0.310416666666667</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -886,16 +868,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>36</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>0.372916666666667</v>
+        <v>0.310416666666667</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -903,16 +885,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>37</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>0.373611111111111</v>
+        <v>0.311111111111111</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -920,7 +902,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>38</v>
@@ -929,7 +911,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>0.373611111111111</v>
+        <v>0.311111111111111</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -937,7 +919,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>39</v>
@@ -946,7 +928,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>0.374305555555555</v>
+        <v>0.311805555555556</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -954,16 +936,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>40</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>0.374305555555555</v>
+        <v>0.311805555555556</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -971,16 +953,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>41</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>0.375</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -988,7 +970,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>42</v>
@@ -997,7 +979,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>0.375</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1005,16 +987,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>43</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>0.375694444444444</v>
+        <v>0.313194444444444</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1022,16 +1004,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>1</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>0.375694444444444</v>
+        <v>0.313194444444444</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1039,16 +1021,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>1</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>0.376388888888889</v>
+        <v>0.313888888888889</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1056,16 +1038,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>0.376388888888889</v>
+        <v>0.313888888888889</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1073,16 +1055,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>1</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>0.377083333333333</v>
+        <v>0.314583333333333</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1090,16 +1072,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>1</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>0.377083333333333</v>
+        <v>0.314583333333333</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1107,16 +1089,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>1</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>0.377777777777778</v>
+        <v>0.315277777777778</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1124,16 +1106,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>1</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>0.377777777777778</v>
+        <v>0.315277777777778</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1141,16 +1123,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>0.378472222222222</v>
+        <v>0.315972222222222</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1158,16 +1140,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>0.378472222222222</v>
+        <v>0.315972222222222</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1175,16 +1157,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>0.379166666666667</v>
+        <v>0.316666666666667</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1192,16 +1174,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>0.379166666666667</v>
+        <v>0.316666666666667</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1209,16 +1191,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>0.379861111111111</v>
+        <v>0.317361111111111</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1226,7 +1208,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>57</v>
@@ -1235,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>0.379861111111111</v>
+        <v>0.317361111111111</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1243,16 +1225,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>58</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E51" s="1" t="n">
-        <v>0.380555555555556</v>
+        <v>0.318055555555556</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1260,16 +1242,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>114</v>
+        <v>301</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>59</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>0.380555555555556</v>
+        <v>0.350694444444444</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1277,16 +1259,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>115</v>
+        <v>302</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>60</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>0.38125</v>
+        <v>0.352083333333333</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1294,16 +1276,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>116</v>
+        <v>304</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>61</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>0.38125</v>
+        <v>0.353472222222222</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1311,16 +1293,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>117</v>
+        <v>305</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>62</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>0.381944444444444</v>
+        <v>0.354861111111111</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1328,7 +1310,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>118</v>
+        <v>306</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>63</v>
@@ -1337,7 +1319,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>0.381944444444444</v>
+        <v>0.35625</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1345,16 +1327,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>119</v>
+        <v>307</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>64</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E57" s="1" t="n">
-        <v>0.382638888888889</v>
+        <v>0.357638888888889</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1362,16 +1344,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>120</v>
+        <v>318</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>65</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="E58" s="1" t="n">
-        <v>0.382638888888889</v>
+        <v>0.359027777777778</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1379,7 +1361,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>123</v>
+        <v>325</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>66</v>
@@ -1388,7 +1370,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="1" t="n">
-        <v>0.383333333333333</v>
+        <v>0.360416666666667</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1396,7 +1378,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>124</v>
+        <v>311</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>67</v>
@@ -1405,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="1" t="n">
-        <v>0.383333333333333</v>
+        <v>0.361805555555556</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1413,7 +1395,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>125</v>
+        <v>326</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>68</v>
@@ -1422,7 +1404,7 @@
         <v>1</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>0.384027777777778</v>
+        <v>0.363194444444444</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1430,7 +1412,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>126</v>
+        <v>319</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>69</v>
@@ -1439,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>0.384027777777778</v>
+        <v>0.363888888888889</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1447,16 +1429,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>127</v>
+        <v>312</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>70</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="E63" s="1" t="n">
-        <v>0.384722222222222</v>
+        <v>0.364583333333333</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1464,7 +1446,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>71</v>
@@ -1473,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>0.415972222222222</v>
+        <v>0.365277777777778</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1481,16 +1463,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>72</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E65" s="1" t="n">
-        <v>0.417361111111111</v>
+        <v>0.365972222222222</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1498,16 +1480,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>73</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E66" s="1" t="n">
-        <v>0.41875</v>
+        <v>0.366666666666667</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1515,16 +1497,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>74</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E67" s="1" t="n">
-        <v>0.420138888888889</v>
+        <v>0.367361111111111</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1532,16 +1514,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>75</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E68" s="1" t="n">
-        <v>0.421527777777778</v>
+        <v>0.368055555555556</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1549,7 +1531,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>76</v>
@@ -1558,7 +1540,7 @@
         <v>1</v>
       </c>
       <c r="E69" s="1" t="n">
-        <v>0.422916666666667</v>
+        <v>0.36875</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1566,16 +1548,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>77</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="E70" s="1" t="n">
-        <v>0.424305555555556</v>
+        <v>0.369444444444444</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1583,16 +1565,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E71" s="1" t="n">
-        <v>0.425694444444444</v>
+        <v>0.370138888888889</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1600,16 +1582,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E72" s="1" t="n">
-        <v>0.427083333333333</v>
+        <v>0.370833333333333</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1617,16 +1599,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E73" s="1" t="n">
-        <v>0.428472222222222</v>
+        <v>0.371527777777778</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1634,118 +1616,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="E74" s="1" t="n">
-        <v>0.429861111111111</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" s="0" t="n">
-        <v>313</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="E75" s="1" t="n">
-        <v>0.43125</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" s="0" t="n">
-        <v>314</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="D76" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" s="1" t="n">
-        <v>0.432638888888889</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" s="0" t="n">
-        <v>316</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="D77" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="E77" s="1" t="n">
-        <v>0.434027777777778</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" s="0" t="n">
-        <v>319</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D78" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="E78" s="1" t="n">
-        <v>0.435416666666667</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" s="0" t="n">
-        <v>321</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="D79" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="E79" s="1" t="n">
-        <v>0.436805555555555</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" s="0" t="n">
-        <v>306</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="D80" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="E80" s="1" t="n">
-        <v>0.438194444444444</v>
+        <v>0.372222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -1773,7 +1653,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.5344129554656"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1800,7 +1680,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.5344129554656"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
